--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_0_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_0_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.51000000000055</v>
+        <v>25.69000000000058</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.33160182863587e-16</v>
+        <v>1.323663814754285e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>41.52280338133418</v>
+        <v>47.72475545989161</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[35.23754484921982, 47.80806191344853]</t>
+          <t>[41.28179077641309, 54.16772014337013]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.478026573760964</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3145002294299637, 1.6415529180919641]</t>
+          <t>[1.3773949772495788, 1.6541318676558872]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>49.45076678080738</v>
+        <v>53.91175305302956</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[45.3970554383507, 53.50447812326406]</t>
+          <t>[49.651680908789416, 58.1718251972697]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.50914914914957</v>
+        <v>19.49251251251295</v>
       </c>
       <c r="X2" t="n">
-        <v>18.84522522522563</v>
+        <v>18.92676676676719</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.17307307307351</v>
+        <v>20.05825825825871</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.82000000000028</v>
+        <v>23.3100000000002</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.33160182863587e-16</v>
+        <v>1.323663814754285e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>46.87515187950293</v>
+        <v>48.11414621162205</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[37.99905920152432, 55.75124455748154]</t>
+          <t>[38.782723059292806, 57.44556936395129]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.2893158399702314</v>
+        <v>-1.044052813805617</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.49057903299300065, -0.08805264694746207]</t>
+          <t>[-1.2327370572644636, -0.855368570346771]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.005151241242505877</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.005151241242505877</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.85817513908709</v>
+        <v>53.06333937020077</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[48.80987210240727, 58.90647817576692]</t>
+          <t>[47.99511999513807, 58.13155874526346]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.09681681681683</v>
+        <v>3.873333333333367</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3338138138138186</v>
+        <v>3.173333333333361</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.859819819819841</v>
+        <v>4.573333333333372</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_0_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_0_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.69000000000058</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.323663814754285e-16</v>
+        <v>1.465640956600867e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>47.72475545989161</v>
+        <v>42.16813149759533</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[41.28179077641309, 54.16772014337013]</t>
+          <t>[35.5792345289101, 48.757028466280566]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.515763422452733</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3773949772495788, 1.6541318676558872]</t>
+          <t>[1.4654476241970409, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.91175305302956</v>
+        <v>50.03625070366283</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.651680908789416, 58.1718251972697]</t>
+          <t>[45.78363871327091, 54.28886269405475]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.49251251251295</v>
+        <v>19.25185185185231</v>
       </c>
       <c r="X2" t="n">
-        <v>18.92676676676719</v>
+        <v>18.57543543543588</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.05825825825871</v>
+        <v>19.92826826826875</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.3100000000002</v>
+        <v>23.60000000000025</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.323663814754285e-16</v>
+        <v>1.465640956600867e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.11414621162205</v>
+        <v>45.445166047638</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[38.782723059292806, 57.44556936395129]</t>
+          <t>[34.670598588583275, 56.219733506692734]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>6.128431095930864e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.128431095930864e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.044052813805617</v>
+        <v>-0.704421175579693</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.2327370572644636, -0.855368570346771]</t>
+          <t>[-0.9434212172942322, -0.4654211338651537]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3.673845827556477e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.673845827556477e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>53.06333937020077</v>
+        <v>53.92510643669777</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.99511999513807, 58.13155874526346]</t>
+          <t>[48.44260400284448, 59.407608870551066]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.873333333333367</v>
+        <v>2.645845845845873</v>
       </c>
       <c r="X3" t="n">
-        <v>3.173333333333361</v>
+        <v>1.748148148148164</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.573333333333372</v>
+        <v>3.543543543543582</v>
       </c>
     </row>
   </sheetData>
